--- a/biology/Histoire de la zoologie et de la botanique/Édouard_Spach/Édouard_Spach.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Édouard_Spach/Édouard_Spach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Spach</t>
+          <t>Édouard_Spach</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Spach, né le 26 novembre 1801 à Strasbourg et mort le 18 mai 1879 à Paris, est un botaniste français. À ne pas confondre avec le pasteur et écrivain alsacien homonyme Eduard Spach, né à Weinbourg en 1836 et mort à Strasbourg en 1906.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Spach</t>
+          <t>Édouard_Spach</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un marchand de Strasbourg, il vient à Paris en 1824 où il assiste aux cours des botanistes René Desfontaines (1750-1831) et Antoine-Laurent de Jussieu (1748-1836). Il devient le secrétaire de Charles-François Brisseau de Mirbel (1776-1854). Lorsqu'en 1829 de Mirbel devient professeur au Muséum national d'histoire naturelle, il le suit et y passera toute sa vie. Nommé au poste d'aide-naturaliste de culture, il brille rapidement par ses compétences en botaniques et fait paraître de nombreuses monographies dont :
 Histoire naturelle des végétaux. Phanérogames (quatorze volumes et un atlas, Roret, Paris, 1834 à 1848).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Spach</t>
+          <t>Édouard_Spach</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire naturelle des végétaux. Phanérogames, Roret (Paris), 1834-1848, 15 vol. dont 1 atlas ; in-8,
 tome 1, lire en ligne sur Gallica, 
@@ -593,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89douard_Spach</t>
+          <t>Édouard_Spach</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +627,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genre :
 (Malpighiaceae) Spachea A.Juss.
@@ -642,7 +660,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89douard_Spach</t>
+          <t>Édouard_Spach</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -660,7 +678,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Philippe Jaussaud &amp; Édouard R. Brygoo, Du Jardin au Muséum en 516 biographies, Muséum national d’histoire naturelle de Paris, 2004, 630 p.
 Édouard Bureau, « Discours de M. Bureau sur la tombe de M. Spach », in Bulletin de la Société botanique de France, 1879, vol. 26, p. 194-196, en ligne sur Biodiversity Heritage Library
